--- a/data/Yogurth.xlsx
+++ b/data/Yogurth.xlsx
@@ -85,15 +85,6 @@
     <t>marian</t>
   </si>
   <si>
-    <t>Panelista</t>
-  </si>
-  <si>
-    <t>Tratamiento</t>
-  </si>
-  <si>
-    <t>Repetición</t>
-  </si>
-  <si>
     <t>pink_color</t>
   </si>
   <si>
@@ -113,6 +104,15 @@
   </si>
   <si>
     <t>sweet_flavor</t>
+  </si>
+  <si>
+    <t>Panelist</t>
+  </si>
+  <si>
+    <t>Repetition</t>
+  </si>
+  <si>
+    <t>Treatment</t>
   </si>
 </sst>
 </file>
@@ -540,34 +540,34 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>0</v>
@@ -5259,18 +5259,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5442,14 +5442,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13D52B97-683D-4C5B-911A-E4C94ECE6DD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{269A9BA4-F677-4BD6-83F9-A6B3E1BD8514}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="5b6fec91-959e-4929-93ed-040dac1028db"/>
@@ -5461,6 +5453,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13D52B97-683D-4C5B-911A-E4C94ECE6DD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
